--- a/Appendix/Appendix1_all selected variables.xlsx
+++ b/Appendix/Appendix1_all selected variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vszab\LRZ Sync+Share\Masterarbeit AMS\Daten\MA_job-chances\Appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60BD847C-DE6B-4231-8EA6-D46865FAF933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CA60B-EE36-46CE-A72A-0788CF39A892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CA30ACB-B4A9-4A8B-A28B-F0C245B9E11E}"/>
+    <workbookView xWindow="28680" yWindow="-2910" windowWidth="29040" windowHeight="15720" xr2:uid="{1CA30ACB-B4A9-4A8B-A28B-F0C245B9E11E}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="409">
   <si>
     <t>Variable</t>
   </si>
@@ -1644,7 +1644,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1965,9 +1965,6 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -3030,9 +3027,6 @@
       <c r="D56" t="s">
         <v>25</v>
       </c>
-      <c r="E56" t="s">
-        <v>25</v>
-      </c>
       <c r="F56" t="s">
         <v>25</v>
       </c>
